--- a/Actividad1.xlsx
+++ b/Actividad1.xlsx
@@ -5,15 +5,18 @@
   <sheets>
     <sheet state="visible" name="G1 y G2" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="G3 y G4" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Copy of Sheet1" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="G7" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="CotizacionesEmpresas" sheetId="4" r:id="rId7"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'G7'!$A$1:$J$11</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
   <si>
     <t>https://datosmacro.expansion.com/energia-y-medio-ambiente/emisiones-co2</t>
   </si>
@@ -60,6 +63,171 @@
     <t xml:space="preserve">Portugal </t>
   </si>
   <si>
+    <t>Países</t>
+  </si>
+  <si>
+    <t>CO2 Kg/1000$</t>
+  </si>
+  <si>
+    <t>CO2 t per capita</t>
+  </si>
+  <si>
+    <t>Var.</t>
+  </si>
+  <si>
+    <t>China [+]</t>
+  </si>
+  <si>
+    <t>12.466,316</t>
+  </si>
+  <si>
+    <t>0,50</t>
+  </si>
+  <si>
+    <t>8,73</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>Estados Unidos [+]</t>
+  </si>
+  <si>
+    <t>4.752,079</t>
+  </si>
+  <si>
+    <t>0,23</t>
+  </si>
+  <si>
+    <t>14,24</t>
+  </si>
+  <si>
+    <t>5,70%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India </t>
+  </si>
+  <si>
+    <t>India [+]</t>
+  </si>
+  <si>
+    <t>2.648,779</t>
+  </si>
+  <si>
+    <t>0,28</t>
+  </si>
+  <si>
+    <t>1,90</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rusia </t>
+  </si>
+  <si>
+    <t>Rusia [+]</t>
+  </si>
+  <si>
+    <t>1.942,535</t>
+  </si>
+  <si>
+    <t>0,48</t>
+  </si>
+  <si>
+    <t>13,52</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>Japón [+]</t>
+  </si>
+  <si>
+    <t>1.084,691</t>
+  </si>
+  <si>
+    <t>0,21</t>
+  </si>
+  <si>
+    <t>8,60</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irán </t>
+  </si>
+  <si>
+    <t>Irán [+]</t>
+  </si>
+  <si>
+    <t>0,54</t>
+  </si>
+  <si>
+    <t>8,43</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>Alemania [+]</t>
+  </si>
+  <si>
+    <t>0,15</t>
+  </si>
+  <si>
+    <t>8,06</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corea del Sur </t>
+  </si>
+  <si>
+    <t>Corea del Sur [+]</t>
+  </si>
+  <si>
+    <t>0,27</t>
+  </si>
+  <si>
+    <t>12,13</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arabia Saudita </t>
+  </si>
+  <si>
+    <t>Arabia Saudita [+]</t>
+  </si>
+  <si>
+    <t>0,37</t>
+  </si>
+  <si>
+    <t>16,63</t>
+  </si>
+  <si>
+    <t>0,40%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canadá </t>
+  </si>
+  <si>
+    <t>Canadá [+]</t>
+  </si>
+  <si>
+    <t>0,31</t>
+  </si>
+  <si>
+    <t>14,86</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
     <t>Fecha</t>
   </si>
   <si>
@@ -73,6 +241,9 @@
   </si>
   <si>
     <t>Volumen B</t>
+  </si>
+  <si>
+    <t>Los datos siguientes corresponden a las cotizaciones de los valores de dos empresas y los volúmenes del mercado en un marco temporal de 11 días. Podemos representar en un mismo gráfico la evolución de la cotización (líneas) junto con los volúmenes de mercado para ser comparados(barras). Doble eje no muy recomendado.</t>
   </si>
 </sst>
 </file>
@@ -141,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -179,6 +350,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,11 +605,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1064417177"/>
-        <c:axId val="125606352"/>
+        <c:axId val="143971337"/>
+        <c:axId val="1220681479"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1064417177"/>
+        <c:axId val="143971337"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -487,10 +661,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125606352"/>
+        <c:crossAx val="1220681479"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125606352"/>
+        <c:axId val="1220681479"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -565,7 +739,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1064417177"/>
+        <c:crossAx val="143971337"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -674,11 +848,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2082351873"/>
-        <c:axId val="1657339398"/>
+        <c:axId val="1510315278"/>
+        <c:axId val="339833575"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2082351873"/>
+        <c:axId val="1510315278"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -730,10 +904,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1657339398"/>
+        <c:crossAx val="339833575"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1657339398"/>
+        <c:axId val="339833575"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -808,7 +982,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2082351873"/>
+        <c:crossAx val="1510315278"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -938,6 +1112,16 @@
               <c:f>'G3 y G4'!$C$1</c:f>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:cat>
             <c:strRef>
               <c:f>'G3 y G4'!$A$2:$A$11</c:f>
@@ -950,11 +1134,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="864775168"/>
-        <c:axId val="648892956"/>
+        <c:axId val="1236448890"/>
+        <c:axId val="2001110093"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="864775168"/>
+        <c:axId val="1236448890"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1006,10 +1190,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="648892956"/>
+        <c:crossAx val="2001110093"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="648892956"/>
+        <c:axId val="2001110093"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1084,7 +1268,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="864775168"/>
+        <c:crossAx val="1236448890"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
@@ -1150,7 +1334,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Copy of Sheet1'!$B$1</c:f>
+              <c:f>CotizacionesEmpresas!$B$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1171,12 +1355,12 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Copy of Sheet1'!$A$2:$A$12</c:f>
+              <c:f>CotizacionesEmpresas!$A$2:$A$12</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Copy of Sheet1'!$B$2:$B$12</c:f>
+              <c:f>CotizacionesEmpresas!$B$2:$B$12</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1187,7 +1371,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Copy of Sheet1'!$D$1</c:f>
+              <c:f>CotizacionesEmpresas!$D$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1202,22 +1386,22 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Copy of Sheet1'!$A$2:$A$12</c:f>
+              <c:f>CotizacionesEmpresas!$A$2:$A$12</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Copy of Sheet1'!$D$2:$D$12</c:f>
+              <c:f>CotizacionesEmpresas!$D$2:$D$12</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1924164647"/>
-        <c:axId val="948954314"/>
+        <c:axId val="215498311"/>
+        <c:axId val="1505469754"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1924164647"/>
+        <c:axId val="215498311"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1269,10 +1453,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948954314"/>
+        <c:crossAx val="1505469754"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948954314"/>
+        <c:axId val="1505469754"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1347,7 +1531,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1924164647"/>
+        <c:crossAx val="215498311"/>
       </c:valAx>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1356,7 +1540,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Copy of Sheet1'!$C$1</c:f>
+              <c:f>CotizacionesEmpresas!$C$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1371,12 +1555,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Copy of Sheet1'!$A$2:$A$12</c:f>
+              <c:f>CotizacionesEmpresas!$A$2:$A$12</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Copy of Sheet1'!$C$2:$C$12</c:f>
+              <c:f>CotizacionesEmpresas!$C$2:$C$12</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1386,7 +1570,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Copy of Sheet1'!$E$1</c:f>
+              <c:f>CotizacionesEmpresas!$E$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1401,21 +1585,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Copy of Sheet1'!$A$2:$A$12</c:f>
+              <c:f>CotizacionesEmpresas!$A$2:$A$12</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Copy of Sheet1'!$E$2:$E$12</c:f>
+              <c:f>CotizacionesEmpresas!$E$2:$E$12</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="803665882"/>
-        <c:axId val="1528030972"/>
+        <c:axId val="886114595"/>
+        <c:axId val="978960849"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="803665882"/>
+        <c:axId val="886114595"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1439,10 +1623,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1528030972"/>
+        <c:crossAx val="978960849"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1528030972"/>
+        <c:axId val="978960849"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1517,7 +1701,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="803665882"/>
+        <c:crossAx val="886114595"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
@@ -1608,7 +1792,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7677150" cy="4562475"/>
+    <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 3" title="Chart"/>
@@ -1630,10 +1814,10 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7677150" cy="4562475"/>
+    <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 4" title="Chart"/>
@@ -1655,15 +1839,19 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6848475" cy="4238625"/>
+    <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 5" title="Chart"/>
@@ -11646,9 +11834,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col hidden="1" min="2" max="2" width="12.63"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
@@ -14762,22 +14947,340 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col hidden="1" min="3" max="8" width="12.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1.2466316E7</v>
+      </c>
+      <c r="J2" s="8">
+        <v>12466.316</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="8">
+        <v>4752079.0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>4752.079</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="8">
+        <v>2648779.0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>2648.779</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1942535.0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1942.535</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1084691.0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1084.691</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="7">
+        <v>710831.0</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="8">
+        <v>710831.0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>710.831</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="7">
+        <v>665884.0</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="8">
+        <v>665884.0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>665.884</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="7">
+        <v>626800.0</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="8">
+        <v>626800.0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>626.8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="7">
+        <v>586398.0</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="8">
+        <v>586398.0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>586.398</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="7">
+        <v>563538.0</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="8">
+        <v>563538.0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>563.538</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="$A$1:$J$11">
+    <sortState ref="A1:J11">
+      <sortCondition descending="1" ref="I1:I11"/>
+    </sortState>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A1"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
@@ -14967,7 +15470,15 @@
         <v>6.0</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A16:E20"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>